--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/FLORIDA_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/FLORIDA_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1722"/>
+  <dimension ref="A1:D1716"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C36">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C37">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C40">
@@ -927,7 +927,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C42">
@@ -1031,7 +1031,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C50">
@@ -1096,7 +1096,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C55">
@@ -1460,7 +1460,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C83">
@@ -1473,7 +1473,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C84">
@@ -1538,7 +1538,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C89">
@@ -1694,7 +1694,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C101">
@@ -1707,7 +1707,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C102">
@@ -2310,7 +2310,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C148">
@@ -2336,7 +2336,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C150">
@@ -2479,7 +2479,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C161">
@@ -2518,7 +2518,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C164">
@@ -2783,7 +2783,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C184">
@@ -2957,7 +2957,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C197">
@@ -2983,7 +2983,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3040,7 +3040,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C203">
@@ -3227,7 +3227,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C217">
@@ -3409,7 +3409,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C231">
@@ -3461,7 +3461,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C235">
@@ -3552,7 +3552,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C242">
@@ -3565,7 +3565,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C243">
@@ -3578,7 +3578,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C244">
@@ -3695,12 +3695,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C253">
@@ -3739,7 +3739,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C256">
@@ -3752,7 +3752,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C257">
@@ -3830,7 +3830,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C263">
@@ -3921,7 +3921,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C270">
@@ -3973,7 +3973,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C274">
@@ -4064,7 +4064,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C281">
@@ -4155,7 +4155,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C288">
@@ -4168,7 +4168,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C289">
@@ -4350,7 +4350,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C303">
@@ -4493,7 +4493,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C314">
@@ -4506,7 +4506,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C315">
@@ -4519,7 +4519,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C316">
@@ -4545,7 +4545,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C318">
@@ -4675,7 +4675,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C328">
@@ -4818,7 +4818,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C339">
@@ -4896,7 +4896,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C345">
@@ -4909,7 +4909,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C346">
@@ -4922,7 +4922,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C347">
@@ -4935,7 +4935,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C348">
@@ -5096,7 +5096,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C360">
@@ -5109,7 +5109,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C361">
@@ -5122,7 +5122,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C362">
@@ -5226,7 +5226,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C370">
@@ -5278,7 +5278,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C374">
@@ -5382,7 +5382,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C382">
@@ -5434,7 +5434,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C386">
@@ -5460,7 +5460,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C388">
@@ -5486,7 +5486,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C390">
@@ -5512,7 +5512,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C392">
@@ -5538,7 +5538,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C394">
@@ -5603,7 +5603,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C399">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C405">
@@ -5712,7 +5712,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C407">
@@ -5725,7 +5725,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C408">
@@ -5777,7 +5777,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C412">
@@ -5790,7 +5790,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C413">
@@ -5816,7 +5816,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C415">
@@ -5829,7 +5829,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C416">
@@ -5868,7 +5868,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C419">
@@ -5881,7 +5881,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C420">
@@ -5894,7 +5894,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C421">
@@ -5907,7 +5907,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C422">
@@ -5972,7 +5972,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C427">
@@ -5985,14 +5985,14 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C428">
         <v>251</v>
       </c>
       <c r="D428">
-        <v>0.009013214593507613</v>
+        <v>0.009013214593507611</v>
       </c>
     </row>
     <row r="429">
@@ -6037,7 +6037,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C432">
@@ -6050,7 +6050,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C433">
@@ -6128,7 +6128,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C439">
@@ -6141,7 +6141,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C440">
@@ -6167,7 +6167,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C442">
@@ -6180,7 +6180,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C443">
@@ -6206,7 +6206,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C445">
@@ -6245,7 +6245,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C448">
@@ -6414,7 +6414,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C461">
@@ -6440,7 +6440,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C463">
@@ -6466,7 +6466,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C465">
@@ -6492,7 +6492,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C467">
@@ -6544,7 +6544,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C471">
@@ -6557,7 +6557,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C472">
@@ -6796,7 +6796,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C490">
@@ -6809,7 +6809,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C491">
@@ -6887,7 +6887,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C497">
@@ -6939,7 +6939,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C501">
@@ -6991,7 +6991,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C505">
@@ -7030,7 +7030,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C508">
@@ -7121,7 +7121,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C515">
@@ -7134,7 +7134,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C516">
@@ -7147,7 +7147,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C517">
@@ -7160,7 +7160,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C518">
@@ -7173,7 +7173,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C519">
@@ -7199,7 +7199,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C521">
@@ -7212,7 +7212,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C522">
@@ -7225,7 +7225,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C523">
@@ -7264,7 +7264,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C526">
@@ -7342,7 +7342,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C532">
@@ -7355,7 +7355,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C533">
@@ -7407,7 +7407,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C537">
@@ -7433,7 +7433,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C539">
@@ -7446,7 +7446,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C540">
@@ -7472,7 +7472,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C542">
@@ -7589,7 +7589,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C551">
@@ -7602,7 +7602,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C552">
@@ -7615,7 +7615,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C553">
@@ -7667,7 +7667,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C557">
@@ -7680,7 +7680,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C558">
@@ -7750,7 +7750,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C563">
@@ -7815,7 +7815,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C568">
@@ -7828,7 +7828,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C569">
@@ -7880,7 +7880,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C573">
@@ -7997,7 +7997,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C582">
@@ -8075,7 +8075,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C588">
@@ -8088,7 +8088,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C589">
@@ -8140,7 +8140,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C593">
@@ -8205,7 +8205,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C598">
@@ -8218,7 +8218,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C599">
@@ -8296,7 +8296,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C605">
@@ -8361,7 +8361,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C610">
@@ -8374,7 +8374,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C611">
@@ -8413,7 +8413,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C614">
@@ -8426,7 +8426,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C615">
@@ -8465,7 +8465,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C618">
@@ -8491,7 +8491,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C620">
@@ -8530,7 +8530,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C623">
@@ -8556,7 +8556,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C625">
@@ -8660,7 +8660,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C633">
@@ -8673,7 +8673,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C634">
@@ -8686,7 +8686,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C635">
@@ -8751,7 +8751,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C640">
@@ -8764,7 +8764,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C641">
@@ -8803,7 +8803,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C644">
@@ -9120,7 +9120,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C668">
@@ -9146,7 +9146,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C670">
@@ -9991,7 +9991,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C735">
@@ -10295,7 +10295,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C758">
@@ -10386,7 +10386,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C765">
@@ -10438,7 +10438,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C769">
@@ -10503,7 +10503,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C774">
@@ -10516,7 +10516,7 @@
     <row r="775">
       <c r="B775" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C775">
@@ -10607,7 +10607,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C782">
@@ -10664,7 +10664,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C786">
@@ -10677,7 +10677,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C787">
@@ -10729,7 +10729,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C791">
@@ -10807,7 +10807,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C797">
@@ -11137,7 +11137,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C822">
@@ -11215,7 +11215,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C828">
@@ -11285,7 +11285,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C833">
@@ -11363,7 +11363,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C839">
@@ -11415,7 +11415,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C843">
@@ -11441,7 +11441,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C845">
@@ -11480,7 +11480,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C848">
@@ -11506,7 +11506,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C850">
@@ -11519,7 +11519,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C851">
@@ -11532,7 +11532,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C852">
@@ -11545,7 +11545,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C853">
@@ -11558,7 +11558,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C854">
@@ -11571,7 +11571,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C855">
@@ -11584,7 +11584,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C856">
@@ -11610,7 +11610,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C858">
@@ -11623,7 +11623,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C859">
@@ -11753,7 +11753,7 @@
     <row r="869">
       <c r="B869" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C869">
@@ -11766,7 +11766,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C870">
@@ -11792,7 +11792,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C872">
@@ -11818,7 +11818,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C874">
@@ -11844,7 +11844,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C876">
@@ -11870,7 +11870,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C878">
@@ -11883,7 +11883,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C879">
@@ -11896,7 +11896,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C880">
@@ -11922,7 +11922,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C882">
@@ -12078,7 +12078,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C894">
@@ -12273,7 +12273,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C909">
@@ -12377,7 +12377,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C917">
@@ -12572,7 +12572,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C932">
@@ -13313,7 +13313,7 @@
     <row r="989">
       <c r="B989" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C989">
@@ -13326,7 +13326,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C990">
@@ -13560,7 +13560,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1008">
@@ -13612,7 +13612,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1012">
@@ -13755,7 +13755,7 @@
     <row r="1023">
       <c r="B1023" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C1023">
@@ -13768,7 +13768,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1024">
@@ -13950,7 +13950,7 @@
     <row r="1038">
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C1038">
@@ -14002,7 +14002,7 @@
     <row r="1042">
       <c r="B1042" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1042">
@@ -14080,7 +14080,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1048">
@@ -14158,7 +14158,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Santa María del Rosario</t>
+          <t>Santa María Del Rosario</t>
         </is>
       </c>
       <c r="C1054">
@@ -14249,7 +14249,7 @@
     <row r="1061">
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1061">
@@ -14925,7 +14925,7 @@
     <row r="1113">
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1113">
@@ -15146,7 +15146,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1130">
@@ -15159,7 +15159,7 @@
     <row r="1131">
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1131">
@@ -15172,7 +15172,7 @@
     <row r="1132">
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1132">
@@ -15185,7 +15185,7 @@
     <row r="1133">
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1133">
@@ -15211,7 +15211,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1135">
@@ -15224,7 +15224,7 @@
     <row r="1136">
       <c r="B1136" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1136">
@@ -15237,7 +15237,7 @@
     <row r="1137">
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1137">
@@ -15263,7 +15263,7 @@
     <row r="1139">
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1139">
@@ -15276,7 +15276,7 @@
     <row r="1140">
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1140">
@@ -15289,7 +15289,7 @@
     <row r="1141">
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1141">
@@ -15302,7 +15302,7 @@
     <row r="1142">
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1142">
@@ -15315,7 +15315,7 @@
     <row r="1143">
       <c r="B1143" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1143">
@@ -15354,7 +15354,7 @@
     <row r="1146">
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1146">
@@ -15367,7 +15367,7 @@
     <row r="1147">
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1147">
@@ -15406,7 +15406,7 @@
     <row r="1150">
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1150">
@@ -15619,7 +15619,7 @@
     <row r="1166">
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1166">
@@ -15788,7 +15788,7 @@
     <row r="1179">
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1179">
@@ -15853,7 +15853,7 @@
     <row r="1184">
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1184">
@@ -15996,7 +15996,7 @@
     <row r="1195">
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1195">
@@ -16009,7 +16009,7 @@
     <row r="1196">
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1196">
@@ -16048,7 +16048,7 @@
     <row r="1199">
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1199">
@@ -16087,7 +16087,7 @@
     <row r="1202">
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1202">
@@ -16178,7 +16178,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1209">
@@ -16295,7 +16295,7 @@
     <row r="1218">
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1218">
@@ -16555,7 +16555,7 @@
     <row r="1238">
       <c r="B1238" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1238">
@@ -16568,7 +16568,7 @@
     <row r="1239">
       <c r="B1239" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1239">
@@ -16711,7 +16711,7 @@
     <row r="1250">
       <c r="B1250" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1250">
@@ -16724,7 +16724,7 @@
     <row r="1251">
       <c r="B1251" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1251">
@@ -16789,7 +16789,7 @@
     <row r="1256">
       <c r="B1256" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1256">
@@ -16802,7 +16802,7 @@
     <row r="1257">
       <c r="B1257" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1257">
@@ -16815,7 +16815,7 @@
     <row r="1258">
       <c r="B1258" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1258">
@@ -16828,7 +16828,7 @@
     <row r="1259">
       <c r="B1259" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1259">
@@ -16893,7 +16893,7 @@
     <row r="1264">
       <c r="B1264" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1264">
@@ -17036,7 +17036,7 @@
     <row r="1275">
       <c r="B1275" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1275">
@@ -17127,7 +17127,7 @@
     <row r="1282">
       <c r="B1282" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1282">
@@ -17231,7 +17231,7 @@
     <row r="1290">
       <c r="B1290" t="inlineStr">
         <is>
-          <t>Zapotitlán de Méndez</t>
+          <t>Zapotitlán De Méndez</t>
         </is>
       </c>
       <c r="C1290">
@@ -17314,7 +17314,7 @@
       </c>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1296">
@@ -17340,7 +17340,7 @@
     <row r="1298">
       <c r="B1298" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1298">
@@ -17418,7 +17418,7 @@
     <row r="1304">
       <c r="B1304" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1304">
@@ -17431,7 +17431,7 @@
     <row r="1305">
       <c r="B1305" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1305">
@@ -17470,7 +17470,7 @@
     <row r="1308">
       <c r="B1308" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1308">
@@ -17509,7 +17509,7 @@
     <row r="1311">
       <c r="B1311" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1311">
@@ -17688,7 +17688,7 @@
     <row r="1324">
       <c r="B1324" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1324">
@@ -17701,7 +17701,7 @@
     <row r="1325">
       <c r="B1325" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1325">
@@ -17766,7 +17766,7 @@
     <row r="1330">
       <c r="B1330" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C1330">
@@ -17792,7 +17792,7 @@
     <row r="1332">
       <c r="B1332" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1332">
@@ -17935,7 +17935,7 @@
     <row r="1343">
       <c r="B1343" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1343">
@@ -18013,7 +18013,7 @@
     <row r="1349">
       <c r="B1349" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1349">
@@ -18091,7 +18091,7 @@
     <row r="1355">
       <c r="B1355" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1355">
@@ -18117,7 +18117,7 @@
     <row r="1357">
       <c r="B1357" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1357">
@@ -18182,7 +18182,7 @@
     <row r="1362">
       <c r="B1362" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1362">
@@ -18221,7 +18221,7 @@
     <row r="1365">
       <c r="B1365" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1365">
@@ -18234,7 +18234,7 @@
     <row r="1366">
       <c r="B1366" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1366">
@@ -18247,7 +18247,7 @@
     <row r="1367">
       <c r="B1367" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1367">
@@ -18260,7 +18260,7 @@
     <row r="1368">
       <c r="B1368" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1368">
@@ -18273,7 +18273,7 @@
     <row r="1369">
       <c r="B1369" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1369">
@@ -18286,7 +18286,7 @@
     <row r="1370">
       <c r="B1370" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1370">
@@ -18860,7 +18860,7 @@
     <row r="1413">
       <c r="B1413" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1413">
@@ -19346,7 +19346,7 @@
     <row r="1450">
       <c r="B1450" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1450">
@@ -19572,7 +19572,7 @@
     <row r="1467">
       <c r="B1467" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1467">
@@ -19585,7 +19585,7 @@
     <row r="1468">
       <c r="B1468" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1468">
@@ -19598,7 +19598,7 @@
     <row r="1469">
       <c r="B1469" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1469">
@@ -19637,7 +19637,7 @@
     <row r="1472">
       <c r="B1472" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1472">
@@ -19676,7 +19676,7 @@
     <row r="1475">
       <c r="B1475" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1475">
@@ -19741,7 +19741,7 @@
     <row r="1480">
       <c r="B1480" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1480">
@@ -19967,7 +19967,7 @@
     <row r="1497">
       <c r="B1497" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1497">
@@ -20019,7 +20019,7 @@
     <row r="1501">
       <c r="B1501" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1501">
@@ -20149,7 +20149,7 @@
     <row r="1511">
       <c r="B1511" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1511">
@@ -20175,7 +20175,7 @@
     <row r="1513">
       <c r="B1513" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1513">
@@ -20214,7 +20214,7 @@
     <row r="1516">
       <c r="B1516" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1516">
@@ -20240,7 +20240,7 @@
     <row r="1518">
       <c r="B1518" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1518">
@@ -20318,7 +20318,7 @@
     <row r="1524">
       <c r="B1524" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1524">
@@ -20461,7 +20461,7 @@
     <row r="1535">
       <c r="B1535" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1535">
@@ -20669,7 +20669,7 @@
     <row r="1551">
       <c r="B1551" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1551">
@@ -20682,7 +20682,7 @@
     <row r="1552">
       <c r="B1552" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1552">
@@ -20734,7 +20734,7 @@
     <row r="1556">
       <c r="B1556" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1556">
@@ -20747,7 +20747,7 @@
     <row r="1557">
       <c r="B1557" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1557">
@@ -20890,7 +20890,7 @@
     <row r="1568">
       <c r="B1568" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1568">
@@ -20929,7 +20929,7 @@
     <row r="1571">
       <c r="B1571" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1571">
@@ -20942,7 +20942,7 @@
     <row r="1572">
       <c r="B1572" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1572">
@@ -20981,7 +20981,7 @@
     <row r="1575">
       <c r="B1575" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1575">
@@ -21007,7 +21007,7 @@
     <row r="1577">
       <c r="B1577" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1577">
@@ -21059,7 +21059,7 @@
     <row r="1581">
       <c r="B1581" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1581">
@@ -21189,7 +21189,7 @@
     <row r="1591">
       <c r="B1591" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1591">
@@ -21241,7 +21241,7 @@
     <row r="1595">
       <c r="B1595" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1595">
@@ -21254,7 +21254,7 @@
     <row r="1596">
       <c r="B1596" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1596">
@@ -21306,7 +21306,7 @@
     <row r="1600">
       <c r="B1600" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1600">
@@ -21410,7 +21410,7 @@
     <row r="1608">
       <c r="B1608" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1608">
@@ -21449,7 +21449,7 @@
     <row r="1611">
       <c r="B1611" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1611">
@@ -21540,7 +21540,7 @@
     <row r="1618">
       <c r="B1618" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1618">
@@ -21800,7 +21800,7 @@
     <row r="1638">
       <c r="B1638" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1638">
@@ -21969,7 +21969,7 @@
     <row r="1651">
       <c r="B1651" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1651">
@@ -22086,7 +22086,7 @@
     <row r="1660">
       <c r="B1660" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1660">
@@ -22330,7 +22330,7 @@
     <row r="1678">
       <c r="B1678" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1678">
@@ -22356,7 +22356,7 @@
     <row r="1680">
       <c r="B1680" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1680">
@@ -22460,7 +22460,7 @@
     <row r="1688">
       <c r="B1688" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1688">
@@ -22538,7 +22538,7 @@
     <row r="1694">
       <c r="B1694" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1694">
@@ -22551,7 +22551,7 @@
     <row r="1695">
       <c r="B1695" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1695">
@@ -22668,7 +22668,7 @@
     <row r="1704">
       <c r="B1704" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1704">
@@ -22681,7 +22681,7 @@
     <row r="1705">
       <c r="B1705" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1705">
@@ -22694,7 +22694,7 @@
     <row r="1706">
       <c r="B1706" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1706">
@@ -22733,7 +22733,7 @@
     <row r="1709">
       <c r="B1709" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1709">
@@ -22832,41 +22832,6 @@
       </c>
       <c r="D1716">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1718">
-      <c r="A1718" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="1719">
-      <c r="A1719" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1720">
-      <c r="A1720" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1721">
-      <c r="A1721" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1722">
-      <c r="A1722" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
